--- a/Install/러닝_설치.xlsx
+++ b/Install/러닝_설치.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27975" windowHeight="12510"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27975" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="git" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>https://tensorflowkorea.gitbooks.io/tensorflow-kr/content/g3doc/get_started/os_setup.html</t>
   </si>
@@ -84,6 +85,22 @@
   </si>
   <si>
     <t xml:space="preserve">패키지 및 python 파일 생성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clone a git ………</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">next </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이클립스 프로젝트로 복사됨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,6 +638,332 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1438275" y="2886075"/>
+          <a:ext cx="4800600" cy="5124450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8724900" y="2714625"/>
+          <a:ext cx="4895850" cy="5114925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1800225" y="1885950"/>
+          <a:ext cx="3219450" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800351" y="2028825"/>
+          <a:ext cx="323850" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848724" y="5391149"/>
+          <a:ext cx="3228975" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="3981450"/>
+          <a:ext cx="3228975" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -913,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E6:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="V90" sqref="V90"/>
     </sheetView>
   </sheetViews>
@@ -1011,4 +1354,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B8:N40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14">
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>